--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Martin).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Martin).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Navn</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Any role</t>
   </si>
   <si>
-    <t> Setup af workspace, git, introduktion, etc.</t>
+    <t>Setup af workspace, git, introduktion, etc.</t>
   </si>
   <si>
     <t>User-Interface Designer</t>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>Workshop 6 aktivitets diagram</t>
+  </si>
+  <si>
+    <t>Klassediagram UC1</t>
+  </si>
+  <si>
+    <t>Brugertest beregn FT/FN UC1/UC2</t>
+  </si>
+  <si>
+    <t>Blev ikke sat til noget... bøvlede med få push'et tidsregistrering til gitHub</t>
+  </si>
+  <si>
+    <t>Fraværende</t>
+  </si>
+  <si>
+    <t>Syg</t>
+  </si>
+  <si>
+    <t>Casual + Fully dressed UC8</t>
   </si>
 </sst>
 </file>
@@ -404,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -498,6 +516,132 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>42060</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>42061</v>
+      </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>42062</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>42065</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>42066</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>42067</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>42068</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>42069</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>42072</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Martin).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Martin).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Navn</t>
   </si>
@@ -84,6 +84,36 @@
   </si>
   <si>
     <t>Casual + Fully dressed UC8</t>
+  </si>
+  <si>
+    <t>OC9 til UC8</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Test Analyst</t>
+  </si>
+  <si>
+    <t>Testplan(test suite) + Kundemøde</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Design DCD + SD sikkerheds faktor</t>
+  </si>
+  <si>
+    <t>Test Designer</t>
+  </si>
+  <si>
+    <t>Junit test Til Inertimoment og referencespaending</t>
+  </si>
+  <si>
+    <t>Junit test Til referencespaending</t>
+  </si>
+  <si>
+    <t>Refactor af Domain Tests</t>
   </si>
 </sst>
 </file>
@@ -130,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -141,6 +171,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -642,6 +675,90 @@
         <v>19</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>42072</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>42073</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>42073</v>
+      </c>
+      <c r="B18">
+        <v>1.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>42074</v>
+      </c>
+      <c r="B19">
+        <v>3.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>42075</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>42075</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
